--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_ctool_oilcrops_FCT_V2.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_ctool_oilcrops_FCT_V2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="1420" windowWidth="24980" windowHeight="8840" activeTab="2"/>
+    <workbookView xWindow="3820" yWindow="1420" windowWidth="24980" windowHeight="8840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ctols" sheetId="3" r:id="rId1"/>
@@ -415,10 +415,10 @@
     <t>Composite</t>
   </si>
   <si>
-    <t>vit_d_μg</t>
-  </si>
-  <si>
     <t>pcn_fdsupply_avg</t>
+  </si>
+  <si>
+    <t>vit_d_µg</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,7 @@
         <v>79</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3498,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3610,7 +3610,7 @@
         <v>119</v>
       </c>
       <c r="AH1" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="51" t="s">
         <v>109</v>
@@ -4935,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8951,171 +8951,171 @@
         <v>127</v>
       </c>
       <c r="B24" s="5">
-        <f ca="1">SUM(B2:B23)</f>
+        <f t="shared" ref="B24:AQ24" ca="1" si="0">SUM(B2:B23)</f>
         <v>57.94255885677741</v>
       </c>
       <c r="C24" s="5">
-        <f ca="1">SUM(C2:C23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="5">
-        <f ca="1">SUM(D2:D23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f ca="1">SUM(E2:E23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47.99489962282567</v>
       </c>
       <c r="F24" s="5">
-        <f ca="1">SUM(F2:F23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>341.15933361577282</v>
       </c>
       <c r="G24" s="5">
-        <f ca="1">SUM(G2:G23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.951410732654292</v>
       </c>
       <c r="H24" s="5">
-        <f ca="1">SUM(H2:H23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31.955272301998548</v>
       </c>
       <c r="I24" s="5">
-        <f ca="1">SUM(I2:I23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>14.778780783707774</v>
       </c>
       <c r="J24" s="5">
-        <f ca="1">SUM(J2:J23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8.5113319592429271</v>
       </c>
       <c r="K24" s="5">
-        <f ca="1">SUM(K2:K23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5.1805833089367894</v>
       </c>
       <c r="L24" s="5">
-        <f ca="1">SUM(L2:L23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="5">
-        <f ca="1">SUM(M2:M23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>79.454146220553241</v>
       </c>
       <c r="N24" s="5">
-        <f ca="1">SUM(N2:N23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.2509018711015276</v>
       </c>
       <c r="O24" s="5">
-        <f ca="1">SUM(O2:O23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48.780087747236792</v>
       </c>
       <c r="P24" s="5">
-        <f ca="1">SUM(P2:P23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>133.28594262432506</v>
       </c>
       <c r="Q24" s="5">
-        <f ca="1">SUM(Q2:Q23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>325.51954673126676</v>
       </c>
       <c r="R24" s="5">
-        <f ca="1">SUM(R2:R23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.32551954673126671</v>
       </c>
       <c r="S24" s="5">
-        <f ca="1">SUM(S2:S23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>97.968754710599001</v>
       </c>
       <c r="T24" s="5">
-        <f ca="1">SUM(T2:T23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9.7968755908543551E-2</v>
       </c>
       <c r="U24" s="5">
-        <f ca="1">SUM(U2:U23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4095414201644854</v>
       </c>
       <c r="V24" s="5">
-        <f ca="1">SUM(V2:V23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W24" s="5">
-        <f ca="1">SUM(W2:W23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.8345503062422077</v>
       </c>
       <c r="X24" s="5">
-        <f ca="1">SUM(X2:X23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.10498083890435407</v>
       </c>
       <c r="Y24" s="5">
-        <f ca="1">SUM(Y2:Y23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.2216610507549627E-2</v>
       </c>
       <c r="Z24" s="5">
-        <f ca="1">SUM(Z2:Z23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.7260216125142015</v>
       </c>
       <c r="AA24" s="5">
-        <f ca="1">SUM(AA2:AA23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9.5193985049465066E-2</v>
       </c>
       <c r="AB24" s="5">
-        <f ca="1">SUM(AB2:AB23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27.706127478131528</v>
       </c>
       <c r="AC24" s="5">
-        <f ca="1">SUM(AC2:AC23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AD24" s="5">
-        <f ca="1">SUM(AD2:AD23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.2044825945609627</v>
       </c>
       <c r="AE24" s="5">
-        <f ca="1">SUM(AE2:AE23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44.922415137018113</v>
       </c>
       <c r="AF24" s="5">
-        <f ca="1">SUM(AF2:AF23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.39715912759082389</v>
       </c>
       <c r="AG24" s="5">
-        <f ca="1">SUM(AG2:AG23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AH24" s="5">
-        <f ca="1">SUM(AH2:AH23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AI24" s="5">
-        <f ca="1">SUM(AI2:AI23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.32121824351299266</v>
       </c>
       <c r="AJ24" s="5">
-        <f ca="1">SUM(AJ2:AJ23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AK24" s="5">
-        <f ca="1">SUM(AK2:AK23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>25.170962654480661</v>
       </c>
       <c r="AL24" s="5">
-        <f ca="1">SUM(AL2:AL23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.1731769514755523</v>
       </c>
       <c r="AM24" s="5">
-        <f ca="1">SUM(AM2:AM23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.7690373398926973</v>
       </c>
       <c r="AN24" s="5">
-        <f ca="1">SUM(AN2:AN23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AO24" s="5">
-        <f ca="1">SUM(AO2:AO23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AP24" s="5">
-        <f ca="1">SUM(AP2:AP23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="5">
-        <f ca="1">SUM(AQ2:AQ23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
